--- a/导入物资示例.xlsx
+++ b/导入物资示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\软件工程\2020_software_engineering_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595043AF-05F7-4E18-8F9D-5C8D53BAD7E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2CB677-9651-4001-A3D7-6F626F00432F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,26 +39,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.5个口罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6个口罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一箱小浣熊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13900000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13900000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100000199901010001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,11 +55,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.7个口罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18827079220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13900000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6个口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7个口罩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +401,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -428,34 +424,34 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,7 +459,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
